--- a/public/PointsReport.xlsx
+++ b/public/PointsReport.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Credit Points</t>
   </si>
   <si>
-    <t xml:space="preserve"> MyWorld Points</t>
+    <t xml:space="preserve">MyWorld Points</t>
   </si>
   <si>
     <t xml:space="preserve">Funeral Points</t>
@@ -209,28 +209,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,480 +369,480 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="n">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="n">
         <v>410.3008945</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>410.3008945</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>121.5</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>36.75</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>217.5</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="n">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="n">
         <v>375.75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>147.75</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>46.5</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>79.5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="n">
         <v>273.75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="n">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="n">
         <v>253.1645191</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>253.1645191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>144.75</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>51.75</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>49.5</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="n">
         <v>246</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>139.5</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>56.25</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="n">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="n">
         <v>243.75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="n">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="n">
         <v>243</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>132.75</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>71.25</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="n">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>145.5</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>45.75</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="4" t="n">
         <v>48.75</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="n">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="n">
         <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>142.5</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>42.75</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="n">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="n">
         <v>239.25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>151.5</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>31.5</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="n">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="n">
         <v>228</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>145.5</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>34.5</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>45.75</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>0.2505</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>226.0005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>141.75</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>25.5</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="n">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="n">
         <v>224.25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>144.75</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>47.25</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="n">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="n">
         <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="n">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="n">
         <v>211.5196588</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>211.5196588</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>128.25</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>43.5</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="n">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="n">
         <v>210.75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>140.25</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="4" t="n">
         <v>43.5</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="n">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="n">
         <v>207.75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="4" t="n">
         <v>28.5</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v>47.25</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="n">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="n">
         <v>192.75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>120.75</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>32.25</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="4" t="n">
         <v>33.75</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="n">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="n">
         <v>186.75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>121.5</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="4" t="n">
         <v>24.75</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="4" t="n">
         <v>28.5</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="n">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="n">
         <v>174.75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>114.75</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="4" t="n">
         <v>26.25</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="4" t="n">
         <v>16.5</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="n">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="n">
         <v>157.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>120.75</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>11.25</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="4" t="n">
         <v>7.5</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="n">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="n">
         <v>139.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="4" t="n">
         <v>55.5</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="n">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="n">
         <v>55.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>19.5</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="4" t="n">
         <v>6.75</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="4" t="n">
         <v>8.25</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="4" t="n">
         <v>9.0382066</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="4" t="n">
         <v>43.5382066</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="6" t="n">
         <v>2563.5</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="6" t="n">
         <v>715.5</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="6" t="n">
         <v>1079.25</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="6" t="n">
         <v>884.273779</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>5242.523779</v>
       </c>
     </row>
